--- a/Ressources/Burndown Chart.xlsx
+++ b/Ressources/Burndown Chart.xlsx
@@ -5,24 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\Cours B2\Projets\Projet_WEB_B2_LivraisonDeRepas\Ressources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\Cours B2\Projets\Projet Web B2\Projet_WEB_B2_LivraisonDeRepas\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD533959-AB2A-4621-913C-E551C60E8872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44AD05D-68BE-4237-85EB-36922EB93DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Examples" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2 " sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint 4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>Capacité</t>
   </si>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -216,6 +219,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1263,6 +1270,462 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0349-41E4-B3AF-91E5ABC832D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1804062432"/>
+        <c:axId val="1389941808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1804062432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389941808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1389941808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804062432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82888849603681536"/>
+          <c:y val="0.44616179939532874"/>
+          <c:w val="0.14289281299659581"/>
+          <c:h val="0.10767613541978138"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6226337953843662E-2"/>
+          <c:y val="7.4261603375527424E-2"/>
+          <c:w val="0.71048775701818423"/>
+          <c:h val="0.75719990697365358"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Idéal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 4'!$B$5:$I$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 4'!$B$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>samedi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dimanche</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lundi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mardi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mercredi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jeudi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>vendredi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>samedi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 4'!$B$6:$J$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 4'!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FAC-4D09-86B0-3BEEE8BE5ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reste à faire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 4'!$B$5:$I$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 4'!$B$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>samedi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dimanche</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lundi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mardi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mercredi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jeudi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>vendredi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>samedi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 4'!$B$7:$J$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 4'!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FAC-4D09-86B0-3BEEE8BE5ACF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1548,6 +2011,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2065,6 +2568,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2700,6 +3719,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38098</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1599E1-0C7A-4828-A06C-1973ECA9CE21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3101,8 +4163,8 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
@@ -3128,8 +4190,8 @@
   </sheetPr>
   <dimension ref="A2:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3355,7 +4417,7 @@
   </sheetPr>
   <dimension ref="A2:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -3564,4 +4626,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7A0476-F0D6-478B-87C8-B93BC3B171FD}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="25"/>
+    <col min="2" max="15" width="8.7109375" style="25" customWidth="1"/>
+    <col min="16" max="16384" width="14.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="12.75">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12.75">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" ht="12.75">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <f>B2</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <f>B2-B2/B3</f>
+        <v>10.285714285714286</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B2-2*B2/B3</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="E6" s="20">
+        <f>$B$2-3*$B$2/$B$3</f>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="F6" s="20">
+        <f>$B$2-4*$B$2/$B$3</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G6" s="20">
+        <f>$B$2-5*$B$2/$B$3</f>
+        <v>3.4285714285714288</v>
+      </c>
+      <c r="H6" s="20">
+        <f>$B$2-6*$B$2/$B$3</f>
+        <v>1.7142857142857135</v>
+      </c>
+      <c r="I6" s="20">
+        <f>$B$2-7*$B$2/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" ht="12.75">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" ht="12.75">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>